--- a/biology/Botanique/Quai_de_la_Presqu'île-Rollet/Quai_de_la_Presqu'île-Rollet.xlsx
+++ b/biology/Botanique/Quai_de_la_Presqu'île-Rollet/Quai_de_la_Presqu'île-Rollet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quai_de_la_Presqu%27%C3%AEle-Rollet</t>
+          <t>Quai_de_la_Presqu'île-Rollet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le quai de la Presqu'île-Rollet est une voie publique de la commune de Rouen.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quai_de_la_Presqu%27%C3%AEle-Rollet</t>
+          <t>Quai_de_la_Presqu'île-Rollet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quai de la Presqu'île-Rollet est situé en rive gauche, à l'Ouest de Rouen. Il assure la continuité du quai Jean-de-Béthencourt, dont il constitue un détachement. Les piétons peuvent accéder au quai par les escaliers du pont Gustave-Flaubert. Les véhicules à moteur y sont interdits.
-La longueur utilisable du quai, supérieure à 1 km, le classe en première place sur l'ensemble des quais aménagés du port de Rouen en 1952[1]. Après la Seconde Guerre mondiale, la vocation charbonnière du site nécessite la présence de 5 usines de concassage et criblage du minerai[1]. La société Lavoirs Charbonniers de Rouen (SOLACHAR) est la dernière à quitter le site en 2001.
+La longueur utilisable du quai, supérieure à 1 km, le classe en première place sur l'ensemble des quais aménagés du port de Rouen en 1952. Après la Seconde Guerre mondiale, la vocation charbonnière du site nécessite la présence de 5 usines de concassage et criblage du minerai. La société Lavoirs Charbonniers de Rouen (SOLACHAR) est la dernière à quitter le site en 2001.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quai_de_la_Presqu%27%C3%AEle-Rollet</t>
+          <t>Quai_de_la_Presqu'île-Rollet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le quai tient son nom de l'« ancienne île Rollet », ou île Rolet (du nom de son ancien propriétaire[2])[3], île de la Seine rattachée à la commune de Rouen en 1888-1889, où s'opéraient un ensemble d'opérations de transformations de l'anthracite au XIXe siècle, importé du Pays de Galles[4]. La société Barrois y avait son siège social[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le quai tient son nom de l'« ancienne île Rollet », ou île Rolet (du nom de son ancien propriétaire), île de la Seine rattachée à la commune de Rouen en 1888-1889, où s'opéraient un ensemble d'opérations de transformations de l'anthracite au XIXe siècle, importé du Pays de Galles. La société Barrois y avait son siège social.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quai_de_la_Presqu%27%C3%AEle-Rollet</t>
+          <t>Quai_de_la_Presqu'île-Rollet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1643, l'île est connue comme plantée de cerisiers, selon ce qu'en rapporte Hercule Grisel dans le poème Juillet (renvoi 25, portant sur l'ouvrage intitulé Fastes de Rouen[6]).
-La presqu'île Rollet est l'objet d'une requalification urbaine[Note 1] dont la conceptrice, Jacqueline Osty, a reçu le grand prix de l'urbanisme en juillet 2020[7]. Les berges du bassin aux Bois (partie sud de la presqu'île) ont nécessité des travaux d'aménagement de plus d'un an[8].
-Lors de l'édition 2019 de l'Armada, la goélette allemande Wylde Swan et le voilier-école roumain Mircea y ont accosté[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1643, l'île est connue comme plantée de cerisiers, selon ce qu'en rapporte Hercule Grisel dans le poème Juillet (renvoi 25, portant sur l'ouvrage intitulé Fastes de Rouen).
+La presqu'île Rollet est l'objet d'une requalification urbaine[Note 1] dont la conceptrice, Jacqueline Osty, a reçu le grand prix de l'urbanisme en juillet 2020. Les berges du bassin aux Bois (partie sud de la presqu'île) ont nécessité des travaux d'aménagement de plus d'un an.
+Lors de l'édition 2019 de l'Armada, la goélette allemande Wylde Swan et le voilier-école roumain Mircea y ont accosté.
 </t>
         </is>
       </c>
